--- a/po_analysis_by_asin/B0BVRGF3MR_po_data.xlsx
+++ b/po_analysis_by_asin/B0BVRGF3MR_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,41 +452,201 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44983.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45299</v>
+        <v>45004.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>159</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45306</v>
+        <v>45011.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>39</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45355</v>
+        <v>45018.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>157</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45362</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B6" t="n">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B26" t="n">
         <v>94</v>
       </c>
     </row>
@@ -501,7 +661,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,17 +683,73 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44985.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>273</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45352</v>
+        <v>45016.99999999999</v>
       </c>
       <c r="B3" t="n">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45169.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45199.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45230.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45260.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45291.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45322.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B10" t="n">
         <v>251</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0BVRGF3MR_po_data.xlsx
+++ b/po_analysis_by_asin/B0BVRGF3MR_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -639,15 +639,7 @@
         <v>45361.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>45368.99999999999</v>
-      </c>
-      <c r="B26" t="n">
-        <v>94</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -750,7 +742,7 @@
         <v>45382.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>251</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0BVRGF3MR_po_data.xlsx
+++ b/po_analysis_by_asin/B0BVRGF3MR_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -669,7 +670,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -743,6 +744,495 @@
       </c>
       <c r="B10" t="n">
         <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44983.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>85</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-20.08482791750849</v>
+      </c>
+      <c r="D2" t="n">
+        <v>187.8902386863956</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45004.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>85</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-20.419606311402</v>
+      </c>
+      <c r="D3" t="n">
+        <v>189.0297450551411</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>85</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-17.50545163153635</v>
+      </c>
+      <c r="D4" t="n">
+        <v>188.8695604787052</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45018.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>85</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-21.96369454344176</v>
+      </c>
+      <c r="D5" t="n">
+        <v>189.0090619142208</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>86</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-25.68345222352805</v>
+      </c>
+      <c r="D6" t="n">
+        <v>186.7137659941805</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>86</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-25.66704304867037</v>
+      </c>
+      <c r="D7" t="n">
+        <v>200.1059845697767</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>86</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-24.85208029716501</v>
+      </c>
+      <c r="D8" t="n">
+        <v>200.5413392038703</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>86</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-22.18619460046977</v>
+      </c>
+      <c r="D9" t="n">
+        <v>186.7332584201667</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>86</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-20.30125398234767</v>
+      </c>
+      <c r="D10" t="n">
+        <v>195.1696935940191</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>86</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-25.48604813612787</v>
+      </c>
+      <c r="D11" t="n">
+        <v>195.9742363044242</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>86</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-24.53559317414004</v>
+      </c>
+      <c r="D12" t="n">
+        <v>195.9927615296611</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>86</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-22.80417809597028</v>
+      </c>
+      <c r="D13" t="n">
+        <v>190.2138125272641</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>86</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-13.61010705188423</v>
+      </c>
+      <c r="D14" t="n">
+        <v>194.8223520717324</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>86</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-24.03087394872215</v>
+      </c>
+      <c r="D15" t="n">
+        <v>189.7919448399541</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>86</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-21.24030485546874</v>
+      </c>
+      <c r="D16" t="n">
+        <v>198.4168027059821</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>87</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-14.78277549568434</v>
+      </c>
+      <c r="D17" t="n">
+        <v>190.5335680106415</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>87</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-24.12977069875354</v>
+      </c>
+      <c r="D18" t="n">
+        <v>193.9710785831379</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>87</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-25.07845627308344</v>
+      </c>
+      <c r="D19" t="n">
+        <v>195.2860388470222</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>87</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-23.30976571605917</v>
+      </c>
+      <c r="D20" t="n">
+        <v>198.2774457079426</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>87</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-25.88000039605541</v>
+      </c>
+      <c r="D21" t="n">
+        <v>200.0527098499818</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>87</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-19.18067255507814</v>
+      </c>
+      <c r="D22" t="n">
+        <v>187.0152807689812</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>87</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-22.3956795381919</v>
+      </c>
+      <c r="D23" t="n">
+        <v>193.5000866508918</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>87</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-13.02013616494527</v>
+      </c>
+      <c r="D24" t="n">
+        <v>196.0032460771824</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>87</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-9.604419115750575</v>
+      </c>
+      <c r="D25" t="n">
+        <v>211.3889727134011</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>87</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-27.0870607558845</v>
+      </c>
+      <c r="D26" t="n">
+        <v>202.2635242358425</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>87</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-29.73366543700056</v>
+      </c>
+      <c r="D27" t="n">
+        <v>198.9620337950973</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>88</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-17.98853558095734</v>
+      </c>
+      <c r="D28" t="n">
+        <v>201.3519410382065</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>88</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-17.43384749360223</v>
+      </c>
+      <c r="D29" t="n">
+        <v>197.2122856971083</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>88</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-22.27958711740193</v>
+      </c>
+      <c r="D30" t="n">
+        <v>196.1045300556407</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>88</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-18.6498980600304</v>
+      </c>
+      <c r="D31" t="n">
+        <v>192.9475405444393</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>88</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-20.48694836832432</v>
+      </c>
+      <c r="D32" t="n">
+        <v>200.0139638155124</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>88</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-17.05896779955965</v>
+      </c>
+      <c r="D33" t="n">
+        <v>198.7061026667855</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0BVRGF3MR_po_data.xlsx
+++ b/po_analysis_by_asin/B0BVRGF3MR_po_data.xlsx
@@ -757,7 +757,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -776,16 +776,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -794,12 +784,6 @@
       <c r="B2" t="n">
         <v>85</v>
       </c>
-      <c r="C2" t="n">
-        <v>-20.08482791750849</v>
-      </c>
-      <c r="D2" t="n">
-        <v>187.8902386863956</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -808,12 +792,6 @@
       <c r="B3" t="n">
         <v>85</v>
       </c>
-      <c r="C3" t="n">
-        <v>-20.419606311402</v>
-      </c>
-      <c r="D3" t="n">
-        <v>189.0297450551411</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -822,12 +800,6 @@
       <c r="B4" t="n">
         <v>85</v>
       </c>
-      <c r="C4" t="n">
-        <v>-17.50545163153635</v>
-      </c>
-      <c r="D4" t="n">
-        <v>188.8695604787052</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -836,12 +808,6 @@
       <c r="B5" t="n">
         <v>85</v>
       </c>
-      <c r="C5" t="n">
-        <v>-21.96369454344176</v>
-      </c>
-      <c r="D5" t="n">
-        <v>189.0090619142208</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -850,12 +816,6 @@
       <c r="B6" t="n">
         <v>86</v>
       </c>
-      <c r="C6" t="n">
-        <v>-25.68345222352805</v>
-      </c>
-      <c r="D6" t="n">
-        <v>186.7137659941805</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -864,12 +824,6 @@
       <c r="B7" t="n">
         <v>86</v>
       </c>
-      <c r="C7" t="n">
-        <v>-25.66704304867037</v>
-      </c>
-      <c r="D7" t="n">
-        <v>200.1059845697767</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -878,12 +832,6 @@
       <c r="B8" t="n">
         <v>86</v>
       </c>
-      <c r="C8" t="n">
-        <v>-24.85208029716501</v>
-      </c>
-      <c r="D8" t="n">
-        <v>200.5413392038703</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -892,12 +840,6 @@
       <c r="B9" t="n">
         <v>86</v>
       </c>
-      <c r="C9" t="n">
-        <v>-22.18619460046977</v>
-      </c>
-      <c r="D9" t="n">
-        <v>186.7332584201667</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -906,12 +848,6 @@
       <c r="B10" t="n">
         <v>86</v>
       </c>
-      <c r="C10" t="n">
-        <v>-20.30125398234767</v>
-      </c>
-      <c r="D10" t="n">
-        <v>195.1696935940191</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -920,12 +856,6 @@
       <c r="B11" t="n">
         <v>86</v>
       </c>
-      <c r="C11" t="n">
-        <v>-25.48604813612787</v>
-      </c>
-      <c r="D11" t="n">
-        <v>195.9742363044242</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -934,12 +864,6 @@
       <c r="B12" t="n">
         <v>86</v>
       </c>
-      <c r="C12" t="n">
-        <v>-24.53559317414004</v>
-      </c>
-      <c r="D12" t="n">
-        <v>195.9927615296611</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -948,12 +872,6 @@
       <c r="B13" t="n">
         <v>86</v>
       </c>
-      <c r="C13" t="n">
-        <v>-22.80417809597028</v>
-      </c>
-      <c r="D13" t="n">
-        <v>190.2138125272641</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -962,12 +880,6 @@
       <c r="B14" t="n">
         <v>86</v>
       </c>
-      <c r="C14" t="n">
-        <v>-13.61010705188423</v>
-      </c>
-      <c r="D14" t="n">
-        <v>194.8223520717324</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -976,12 +888,6 @@
       <c r="B15" t="n">
         <v>86</v>
       </c>
-      <c r="C15" t="n">
-        <v>-24.03087394872215</v>
-      </c>
-      <c r="D15" t="n">
-        <v>189.7919448399541</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -990,12 +896,6 @@
       <c r="B16" t="n">
         <v>86</v>
       </c>
-      <c r="C16" t="n">
-        <v>-21.24030485546874</v>
-      </c>
-      <c r="D16" t="n">
-        <v>198.4168027059821</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1004,12 +904,6 @@
       <c r="B17" t="n">
         <v>87</v>
       </c>
-      <c r="C17" t="n">
-        <v>-14.78277549568434</v>
-      </c>
-      <c r="D17" t="n">
-        <v>190.5335680106415</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1018,12 +912,6 @@
       <c r="B18" t="n">
         <v>87</v>
       </c>
-      <c r="C18" t="n">
-        <v>-24.12977069875354</v>
-      </c>
-      <c r="D18" t="n">
-        <v>193.9710785831379</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1032,12 +920,6 @@
       <c r="B19" t="n">
         <v>87</v>
       </c>
-      <c r="C19" t="n">
-        <v>-25.07845627308344</v>
-      </c>
-      <c r="D19" t="n">
-        <v>195.2860388470222</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1046,12 +928,6 @@
       <c r="B20" t="n">
         <v>87</v>
       </c>
-      <c r="C20" t="n">
-        <v>-23.30976571605917</v>
-      </c>
-      <c r="D20" t="n">
-        <v>198.2774457079426</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1060,12 +936,6 @@
       <c r="B21" t="n">
         <v>87</v>
       </c>
-      <c r="C21" t="n">
-        <v>-25.88000039605541</v>
-      </c>
-      <c r="D21" t="n">
-        <v>200.0527098499818</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1074,12 +944,6 @@
       <c r="B22" t="n">
         <v>87</v>
       </c>
-      <c r="C22" t="n">
-        <v>-19.18067255507814</v>
-      </c>
-      <c r="D22" t="n">
-        <v>187.0152807689812</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1088,12 +952,6 @@
       <c r="B23" t="n">
         <v>87</v>
       </c>
-      <c r="C23" t="n">
-        <v>-22.3956795381919</v>
-      </c>
-      <c r="D23" t="n">
-        <v>193.5000866508918</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1102,12 +960,6 @@
       <c r="B24" t="n">
         <v>87</v>
       </c>
-      <c r="C24" t="n">
-        <v>-13.02013616494527</v>
-      </c>
-      <c r="D24" t="n">
-        <v>196.0032460771824</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1116,12 +968,6 @@
       <c r="B25" t="n">
         <v>87</v>
       </c>
-      <c r="C25" t="n">
-        <v>-9.604419115750575</v>
-      </c>
-      <c r="D25" t="n">
-        <v>211.3889727134011</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1130,12 +976,6 @@
       <c r="B26" t="n">
         <v>87</v>
       </c>
-      <c r="C26" t="n">
-        <v>-27.0870607558845</v>
-      </c>
-      <c r="D26" t="n">
-        <v>202.2635242358425</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1144,12 +984,6 @@
       <c r="B27" t="n">
         <v>87</v>
       </c>
-      <c r="C27" t="n">
-        <v>-29.73366543700056</v>
-      </c>
-      <c r="D27" t="n">
-        <v>198.9620337950973</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1158,12 +992,6 @@
       <c r="B28" t="n">
         <v>88</v>
       </c>
-      <c r="C28" t="n">
-        <v>-17.98853558095734</v>
-      </c>
-      <c r="D28" t="n">
-        <v>201.3519410382065</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1172,12 +1000,6 @@
       <c r="B29" t="n">
         <v>88</v>
       </c>
-      <c r="C29" t="n">
-        <v>-17.43384749360223</v>
-      </c>
-      <c r="D29" t="n">
-        <v>197.2122856971083</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1186,12 +1008,6 @@
       <c r="B30" t="n">
         <v>88</v>
       </c>
-      <c r="C30" t="n">
-        <v>-22.27958711740193</v>
-      </c>
-      <c r="D30" t="n">
-        <v>196.1045300556407</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1200,12 +1016,6 @@
       <c r="B31" t="n">
         <v>88</v>
       </c>
-      <c r="C31" t="n">
-        <v>-18.6498980600304</v>
-      </c>
-      <c r="D31" t="n">
-        <v>192.9475405444393</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1214,12 +1024,6 @@
       <c r="B32" t="n">
         <v>88</v>
       </c>
-      <c r="C32" t="n">
-        <v>-20.48694836832432</v>
-      </c>
-      <c r="D32" t="n">
-        <v>200.0139638155124</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1227,12 +1031,6 @@
       </c>
       <c r="B33" t="n">
         <v>88</v>
-      </c>
-      <c r="C33" t="n">
-        <v>-17.05896779955965</v>
-      </c>
-      <c r="D33" t="n">
-        <v>198.7061026667855</v>
       </c>
     </row>
   </sheetData>
